--- a/data/trans_orig/P41D_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P41D_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F672D62F-723D-4846-8439-B55945A909BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD73342B-9D37-4F9F-990A-C765F10BDF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BAEB91A3-FC4B-430B-BEBA-CD323EB0301B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B6BBFE5F-B3B9-4A04-888D-11913D73F4D9}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -149,7 +149,7 @@
     <t>22,76%</t>
   </si>
   <si>
-    <t>81,52%</t>
+    <t>81,46%</t>
   </si>
   <si>
     <t>64,79%</t>
@@ -158,7 +158,7 @@
     <t>77,24%</t>
   </si>
   <si>
-    <t>18,48%</t>
+    <t>18,54%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -185,49 +185,49 @@
     <t>9,02%</t>
   </si>
   <si>
-    <t>40,9%</t>
+    <t>45,12%</t>
   </si>
   <si>
     <t>31,49%</t>
   </si>
   <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
   </si>
   <si>
     <t>19,8%</t>
   </si>
   <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
   </si>
   <si>
     <t>90,98%</t>
   </si>
   <si>
-    <t>59,1%</t>
+    <t>54,88%</t>
   </si>
   <si>
     <t>68,51%</t>
   </si>
   <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
   </si>
   <si>
     <t>80,2%</t>
   </si>
   <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -642,7 +642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88D66BB-BB84-4E6A-BBED-0A98AB510943}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E5295B-8404-4E88-BF84-D40745D4DD5E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P41D_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P41D_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD73342B-9D37-4F9F-990A-C765F10BDF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1116B1E-5223-478F-9DBB-F778A272DC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B6BBFE5F-B3B9-4A04-888D-11913D73F4D9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A0C1D6DA-F502-41B3-91BE-8E2178940350}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -642,7 +642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E5295B-8404-4E88-BF84-D40745D4DD5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E460AF9F-6833-4208-8F5C-17348B863450}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P41D_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P41D_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1116B1E-5223-478F-9DBB-F778A272DC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35A9D176-E7E0-437D-A7B3-EF301C4FECC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A0C1D6DA-F502-41B3-91BE-8E2178940350}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1B65B156-8E6E-4E6A-84BF-017876FA4322}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -149,7 +149,7 @@
     <t>22,76%</t>
   </si>
   <si>
-    <t>81,46%</t>
+    <t>81,52%</t>
   </si>
   <si>
     <t>64,79%</t>
@@ -158,7 +158,7 @@
     <t>77,24%</t>
   </si>
   <si>
-    <t>18,54%</t>
+    <t>18,48%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -185,49 +185,49 @@
     <t>9,02%</t>
   </si>
   <si>
-    <t>45,12%</t>
+    <t>40,9%</t>
   </si>
   <si>
     <t>31,49%</t>
   </si>
   <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
   </si>
   <si>
     <t>19,8%</t>
   </si>
   <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
   </si>
   <si>
     <t>90,98%</t>
   </si>
   <si>
-    <t>54,88%</t>
+    <t>59,1%</t>
   </si>
   <si>
     <t>68,51%</t>
   </si>
   <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
   </si>
   <si>
     <t>80,2%</t>
   </si>
   <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -642,7 +642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E460AF9F-6833-4208-8F5C-17348B863450}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5222C80B-2CE4-4864-B058-1738B1399D55}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P41D_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P41D_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35A9D176-E7E0-437D-A7B3-EF301C4FECC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45AE245A-1192-4A0C-AD9D-3F3C3816B91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1B65B156-8E6E-4E6A-84BF-017876FA4322}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{11EC1A3F-7279-4B02-B1F6-03ECCC181B98}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -98,10 +98,10 @@
     <t>100%</t>
   </si>
   <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -134,100 +134,100 @@
     <t>Jaen</t>
   </si>
   <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
   </si>
   <si>
     <t>Malaga</t>
   </si>
   <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
   </si>
   <si>
     <t>Sevilla</t>
   </si>
   <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -642,7 +642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5222C80B-2CE4-4864-B058-1738B1399D55}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF207132-E8BE-44B5-ADBD-C04642F5F06D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -915,7 +915,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>1247</v>
+        <v>1141</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>17</v>
@@ -930,7 +930,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>1247</v>
+        <v>1142</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>20</v>
@@ -951,7 +951,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>1371</v>
+        <v>1453</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
@@ -981,7 +981,7 @@
         <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>1371</v>
+        <v>1453</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>21</v>
@@ -1002,7 +1002,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="7">
-        <v>1371</v>
+        <v>1453</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -1017,7 +1017,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="7">
-        <v>1247</v>
+        <v>1141</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1032,7 +1032,7 @@
         <v>2</v>
       </c>
       <c r="N9" s="7">
-        <v>2618</v>
+        <v>2595</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>1192</v>
+        <v>1207</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
@@ -1121,7 +1121,7 @@
         <v>3</v>
       </c>
       <c r="I11" s="7">
-        <v>2212</v>
+        <v>2107</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
@@ -1136,7 +1136,7 @@
         <v>4</v>
       </c>
       <c r="N11" s="7">
-        <v>3404</v>
+        <v>3314</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
@@ -1157,7 +1157,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>1192</v>
+        <v>1207</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -1172,7 +1172,7 @@
         <v>3</v>
       </c>
       <c r="I12" s="7">
-        <v>2212</v>
+        <v>2107</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1187,7 +1187,7 @@
         <v>4</v>
       </c>
       <c r="N12" s="7">
-        <v>3404</v>
+        <v>3314</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -1261,7 +1261,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>4584</v>
+        <v>4361</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
@@ -1276,7 +1276,7 @@
         <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>1755</v>
+        <v>1640</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
@@ -1291,7 +1291,7 @@
         <v>4</v>
       </c>
       <c r="N14" s="7">
-        <v>6339</v>
+        <v>6001</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
@@ -1312,7 +1312,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="7">
-        <v>4584</v>
+        <v>4361</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -1327,7 +1327,7 @@
         <v>2</v>
       </c>
       <c r="I15" s="7">
-        <v>1755</v>
+        <v>1640</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1342,7 +1342,7 @@
         <v>4</v>
       </c>
       <c r="N15" s="7">
-        <v>6339</v>
+        <v>6001</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1416,7 +1416,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>762</v>
+        <v>694</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
@@ -1431,7 +1431,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>649</v>
+        <v>582</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
@@ -1446,7 +1446,7 @@
         <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>1412</v>
+        <v>1276</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>17</v>
@@ -1467,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="7">
-        <v>762</v>
+        <v>694</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -1482,7 +1482,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="7">
-        <v>649</v>
+        <v>582</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -1497,7 +1497,7 @@
         <v>2</v>
       </c>
       <c r="N18" s="7">
-        <v>1412</v>
+        <v>1276</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -1533,7 +1533,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>837</v>
+        <v>783</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>32</v>
@@ -1548,7 +1548,7 @@
         <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>837</v>
+        <v>783</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>32</v>
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>671</v>
+        <v>633</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>33</v>
@@ -1597,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>671</v>
+        <v>633</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>33</v>
@@ -1631,7 +1631,7 @@
         <v>2</v>
       </c>
       <c r="I21" s="7">
-        <v>1508</v>
+        <v>1416</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -1646,7 +1646,7 @@
         <v>2</v>
       </c>
       <c r="N21" s="7">
-        <v>1508</v>
+        <v>1416</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -1669,7 +1669,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>1256</v>
+        <v>1307</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>35</v>
@@ -1699,7 +1699,7 @@
         <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>1256</v>
+        <v>1307</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>36</v>
@@ -1720,7 +1720,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="7">
-        <v>2312</v>
+        <v>2225</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>38</v>
@@ -1735,7 +1735,7 @@
         <v>2</v>
       </c>
       <c r="I23" s="7">
-        <v>1951</v>
+        <v>1782</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>17</v>
@@ -1750,7 +1750,7 @@
         <v>4</v>
       </c>
       <c r="N23" s="7">
-        <v>4263</v>
+        <v>4007</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>39</v>
@@ -1771,7 +1771,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="7">
-        <v>3568</v>
+        <v>3532</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>19</v>
@@ -1786,7 +1786,7 @@
         <v>2</v>
       </c>
       <c r="I24" s="7">
-        <v>1951</v>
+        <v>1782</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>19</v>
@@ -1801,7 +1801,7 @@
         <v>5</v>
       </c>
       <c r="N24" s="7">
-        <v>5519</v>
+        <v>5314</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -1839,7 +1839,7 @@
         <v>2</v>
       </c>
       <c r="I25" s="7">
-        <v>1959</v>
+        <v>1646</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>42</v>
@@ -1854,7 +1854,7 @@
         <v>2</v>
       </c>
       <c r="N25" s="7">
-        <v>1959</v>
+        <v>1646</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>43</v>
@@ -1875,7 +1875,7 @@
         <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>2446</v>
+        <v>2061</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>17</v>
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>1558</v>
+        <v>1229</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>45</v>
@@ -1905,7 +1905,7 @@
         <v>3</v>
       </c>
       <c r="N26" s="7">
-        <v>4004</v>
+        <v>3290</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>46</v>
@@ -1926,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="7">
-        <v>2446</v>
+        <v>2061</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>19</v>
@@ -1941,7 +1941,7 @@
         <v>3</v>
       </c>
       <c r="I27" s="7">
-        <v>3517</v>
+        <v>2875</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>19</v>
@@ -1956,7 +1956,7 @@
         <v>5</v>
       </c>
       <c r="N27" s="7">
-        <v>5963</v>
+        <v>4936</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>19</v>
@@ -1979,7 +1979,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="7">
-        <v>1256</v>
+        <v>1307</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>48</v>
@@ -1994,7 +1994,7 @@
         <v>4</v>
       </c>
       <c r="I28" s="7">
-        <v>4042</v>
+        <v>3571</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>50</v>
@@ -2009,7 +2009,7 @@
         <v>5</v>
       </c>
       <c r="N28" s="7">
-        <v>5298</v>
+        <v>4879</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>53</v>
@@ -2030,7 +2030,7 @@
         <v>9</v>
       </c>
       <c r="D29" s="7">
-        <v>12668</v>
+        <v>12001</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>56</v>
@@ -2045,7 +2045,7 @@
         <v>10</v>
       </c>
       <c r="I29" s="7">
-        <v>8796</v>
+        <v>7973</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>58</v>
@@ -2060,7 +2060,7 @@
         <v>19</v>
       </c>
       <c r="N29" s="7">
-        <v>21464</v>
+        <v>19974</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>61</v>
@@ -2081,7 +2081,7 @@
         <v>10</v>
       </c>
       <c r="D30" s="7">
-        <v>13924</v>
+        <v>13308</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>19</v>
@@ -2096,7 +2096,7 @@
         <v>14</v>
       </c>
       <c r="I30" s="7">
-        <v>12838</v>
+        <v>11544</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>19</v>
@@ -2111,7 +2111,7 @@
         <v>24</v>
       </c>
       <c r="N30" s="7">
-        <v>26762</v>
+        <v>24853</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>
